--- a/Docs/Report Output.xlsx
+++ b/Docs/Report Output.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="NORMAL" sheetId="1" r:id="rId1"/>
+    <sheet name="GROUND" sheetId="2" r:id="rId2"/>
+    <sheet name="H2H" sheetId="3" r:id="rId3"/>
+    <sheet name="FORM" sheetId="4" r:id="rId4"/>
+    <sheet name="INTERNATIONAL" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="16">
   <si>
     <t>Player ID</t>
   </si>
@@ -34,46 +35,37 @@
     <t>Average Player Rank</t>
   </si>
   <si>
-    <t>Total Points</t>
-  </si>
-  <si>
-    <t>Bat Innings</t>
-  </si>
-  <si>
-    <t>Batting Points</t>
-  </si>
-  <si>
-    <t>Bowl Innings</t>
-  </si>
-  <si>
-    <t>Bowling Points</t>
-  </si>
-  <si>
-    <t>Fielding Points</t>
-  </si>
-  <si>
-    <t>Batting Average Points</t>
-  </si>
-  <si>
-    <t>Bowling Average Points</t>
-  </si>
-  <si>
-    <t>Fielding Average Points</t>
-  </si>
-  <si>
-    <t>Batting Chance</t>
-  </si>
-  <si>
-    <t>Bowling Chance</t>
-  </si>
-  <si>
-    <t>Ibrahim Zadran</t>
-  </si>
-  <si>
-    <t>Ground ID</t>
-  </si>
-  <si>
-    <t>Opponent ID</t>
+    <t>Value Points</t>
+  </si>
+  <si>
+    <t>In_Dream_Team</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Vice_Captain</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>DT PERCENT</t>
+  </si>
+  <si>
+    <t>CAP PERCENT</t>
+  </si>
+  <si>
+    <t>VCAP PERCENT</t>
+  </si>
+  <si>
+    <t>EXPECTED PTS</t>
+  </si>
+  <si>
+    <t>CAP CHANCE</t>
+  </si>
+  <si>
+    <t>Rachin Ravindra</t>
   </si>
 </sst>
 </file>
@@ -431,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,308 +475,157 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>10.4</v>
-      </c>
-      <c r="F2">
-        <v>295</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>251</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>959767</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="L2">
-        <v>50.2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>4.8</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>921509</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>9.75</v>
-      </c>
-      <c r="F3">
-        <v>228</v>
-      </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>28</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>10.11111111111111</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>523</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>48.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>10.4</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
-        <v>50.2</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>921509</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>9.75</v>
-      </c>
-      <c r="F6">
-        <v>228</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>184</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>28</v>
-      </c>
-      <c r="L6">
-        <v>46</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>921509</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>10.11111111111111</v>
-      </c>
-      <c r="F7">
-        <v>523</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>435</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>52</v>
-      </c>
-      <c r="L7">
-        <v>48.33333333333334</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5.777777777777778</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -794,13 +635,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,106 +658,186 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>959767</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>959767</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>921509</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>921509</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>921509</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>921509</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -926,13 +847,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,274 +870,186 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>921509</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>61</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>45</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>12</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>921509</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>61</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>45</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1226,13 +1059,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,109 +1082,254 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>959767</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>959767</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>17</v>
       </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>959767</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>959767</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>921509</v>
+        <v>959767</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>921509</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>921509</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Report Output.xlsx
+++ b/Docs/Report Output.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\ESPN CricInfo Scrape\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D311D48-5EF7-4AC7-A523-5192C39F350E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NORMAL" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="FORM" sheetId="4" r:id="rId4"/>
     <sheet name="INTERNATIONAL" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -71,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +141,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +193,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -213,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -247,9 +262,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,14 +438,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>959767</v>
       </c>
@@ -487,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>959767</v>
       </c>
@@ -534,7 +569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>959767</v>
       </c>
@@ -581,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>959767</v>
       </c>
@@ -634,14 +669,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>959767</v>
       </c>
@@ -699,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>959767</v>
       </c>
@@ -746,7 +800,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>959767</v>
       </c>
@@ -793,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>959767</v>
       </c>
@@ -846,14 +900,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>959767</v>
       </c>
@@ -911,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>959767</v>
       </c>
@@ -958,7 +1031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>959767</v>
       </c>
@@ -1005,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>959767</v>
       </c>
@@ -1058,14 +1131,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>959767</v>
       </c>
@@ -1123,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>959767</v>
       </c>
@@ -1170,7 +1262,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>959767</v>
       </c>
@@ -1181,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>959767</v>
       </c>
@@ -1198,14 +1290,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>959767</v>
       </c>
@@ -1263,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>959767</v>
       </c>
@@ -1310,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>959767</v>
       </c>
@@ -1321,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>959767</v>
       </c>
